--- a/results/mp/logistic/corona/confidence/126/desired-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/desired-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="95">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,27 +40,24 @@
     <t>name</t>
   </si>
   <si>
-    <t>hell</t>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>forced</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
@@ -73,21 +70,24 @@
     <t>panic</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>drop</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
@@ -97,10 +97,16 @@
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
-    <t>co</t>
+    <t>corona</t>
   </si>
   <si>
     <t>the</t>
@@ -118,138 +124,150 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>god</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
-    <t>team</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
     <t>helping</t>
   </si>
   <si>
-    <t>data</t>
+    <t>increased</t>
   </si>
   <si>
     <t>your</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>our</t>
   </si>
   <si>
@@ -262,25 +280,25 @@
     <t>i</t>
   </si>
   <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
     <t>are</t>
   </si>
   <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
     <t>in</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -638,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,10 +664,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -707,13 +725,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8695652173913043</v>
+        <v>0.839041095890411</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -725,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -757,13 +775,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.868421052631579</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -775,31 +793,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="L4">
+        <v>115</v>
+      </c>
+      <c r="M4">
+        <v>115</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>5</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4">
-        <v>0.9615384615384616</v>
-      </c>
-      <c r="L4">
-        <v>25</v>
-      </c>
-      <c r="M4">
-        <v>25</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -807,13 +825,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8493150684931506</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>248</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>248</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -825,19 +843,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -849,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -857,13 +875,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8378378378378378</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -878,16 +896,16 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -899,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -907,13 +925,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7307692307692307</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -925,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K7">
-        <v>0.9166666666666666</v>
+        <v>0.8955613577023499</v>
       </c>
       <c r="L7">
-        <v>33</v>
+        <v>343</v>
       </c>
       <c r="M7">
-        <v>33</v>
+        <v>343</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -949,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -957,13 +975,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7241379310344828</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -975,19 +993,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>0.9138381201044387</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L8">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="M8">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -999,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1007,13 +1025,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7058823529411765</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1025,19 +1043,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>0.9090909090909091</v>
+        <v>0.8828125</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1049,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1057,13 +1075,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1075,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>0.9014084507042254</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L10">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1099,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1107,13 +1125,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6111111111111112</v>
+        <v>0.6084656084656085</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1125,19 +1143,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>0.8888888888888888</v>
+        <v>0.8732394366197183</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1149,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1157,13 +1175,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5925925925925926</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="C12">
-        <v>112</v>
+        <v>288</v>
       </c>
       <c r="D12">
-        <v>112</v>
+        <v>288</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1175,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>0.8837209302325582</v>
+        <v>0.86875</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1199,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1207,13 +1225,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5213178294573644</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="C13">
-        <v>269</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>269</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1225,31 +1243,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>247</v>
+        <v>29</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.8828828828828829</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L13">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M13">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="N13">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1257,13 +1275,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4901960784313725</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1275,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>0.8793103448275862</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L14">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1299,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1307,13 +1325,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4745762711864407</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1325,19 +1343,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>0.8723404255319149</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1378,16 +1396,16 @@
         <v>47</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K16">
-        <v>0.8679245283018868</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L16">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="M16">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1399,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1407,13 +1425,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3636363636363636</v>
+        <v>0.3154362416107382</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1425,19 +1443,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>0.8671875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L17">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1449,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1457,13 +1475,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3557046979865772</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C18">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1475,19 +1493,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>0.8636363636363636</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1499,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1507,13 +1525,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2138888888888889</v>
+        <v>0.2555555555555555</v>
       </c>
       <c r="C19">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D19">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1525,19 +1543,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>0.8625</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L19">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1549,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1557,13 +1575,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1349206349206349</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C20">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1575,19 +1593,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>0.8461538461538461</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1599,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1607,13 +1625,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1018766756032172</v>
+        <v>0.06702412868632708</v>
       </c>
       <c r="C21">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1625,19 +1643,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K21">
-        <v>0.8292682926829268</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L21">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="M21">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1649,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1657,37 +1675,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.009278785322648671</v>
+        <v>0.01908767389194435</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E22">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="F22">
-        <v>0.73</v>
+        <v>0.79</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>2349</v>
+        <v>3032</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>0.8214285714285714</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1707,37 +1725,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.008397932816537468</v>
+        <v>0.0169971671388102</v>
       </c>
       <c r="C23">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D23">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E23">
-        <v>0.3</v>
+        <v>0.41</v>
       </c>
       <c r="F23">
-        <v>0.7</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>3070</v>
+        <v>2082</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>0.7916666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1749,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1757,37 +1775,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.008001561280249805</v>
+        <v>0.01692763436309776</v>
       </c>
       <c r="C24">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E24">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>5083</v>
+        <v>2323</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K24">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1799,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1807,37 +1825,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005832944470368642</v>
+        <v>0.008251348778165662</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E25">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="F25">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>4261</v>
+        <v>3125</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K25">
-        <v>0.7619047619047619</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L25">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1849,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1857,37 +1875,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.004057618178129438</v>
+        <v>0.007653061224489796</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D26">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="E26">
-        <v>0.77</v>
+        <v>0.64</v>
       </c>
       <c r="F26">
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>4909</v>
+        <v>5057</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K26">
-        <v>0.76</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1899,21 +1917,45 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.00700280112044818</v>
+      </c>
+      <c r="C27">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <v>74</v>
+      </c>
+      <c r="E27">
+        <v>0.59</v>
+      </c>
+      <c r="F27">
+        <v>0.41</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>4254</v>
+      </c>
       <c r="J27" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K27">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1925,21 +1967,45 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.006700507614213198</v>
+      </c>
+      <c r="C28">
+        <v>33</v>
+      </c>
+      <c r="D28">
+        <v>104</v>
+      </c>
+      <c r="E28">
+        <v>0.68</v>
+      </c>
+      <c r="F28">
+        <v>0.32</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>4892</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K28">
-        <v>0.7441176470588236</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L28">
-        <v>253</v>
+        <v>48</v>
       </c>
       <c r="M28">
-        <v>253</v>
+        <v>48</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1951,21 +2017,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>87</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K29">
-        <v>0.7428571428571429</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>250</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>250</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1977,21 +2043,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K30">
-        <v>0.7307692307692307</v>
+        <v>0.7244897959183674</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>214</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2000,24 +2066,24 @@
         <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K31">
-        <v>0.7272727272727273</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L31">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M31">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2029,21 +2095,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K32">
-        <v>0.7210884353741497</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L32">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>213</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2052,24 +2118,24 @@
         <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>82</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K33">
-        <v>0.7112970711297071</v>
+        <v>0.698744769874477</v>
       </c>
       <c r="L33">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M33">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2081,21 +2147,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K34">
-        <v>0.6808510638297872</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L34">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M34">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2107,21 +2173,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K35">
-        <v>0.6461538461538462</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L35">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2133,21 +2199,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K36">
-        <v>0.6</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L36">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2159,21 +2225,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K37">
-        <v>0.6</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L37">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M37">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2185,21 +2251,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K38">
-        <v>0.5955056179775281</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="L38">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M38">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2211,21 +2277,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K39">
-        <v>0.5588235294117647</v>
+        <v>0.6714285714285714</v>
       </c>
       <c r="L39">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="M39">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2237,21 +2303,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K40">
-        <v>0.5490196078431373</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L40">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M40">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2263,21 +2329,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K41">
-        <v>0.5476190476190477</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L41">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M41">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2289,47 +2355,47 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K42">
-        <v>0.5416666666666666</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L42">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="N42">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K43">
-        <v>0.5128205128205128</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L43">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M43">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2341,21 +2407,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K44">
-        <v>0.4375</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="L44">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M44">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2367,21 +2433,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K45">
-        <v>0.3389830508474576</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L45">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="M45">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2393,21 +2459,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K46">
-        <v>0.3333333333333333</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L46">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M46">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2419,21 +2485,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K47">
-        <v>0.05850091407678245</v>
+        <v>0.421875</v>
       </c>
       <c r="L47">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M47">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2445,371 +2511,527 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>515</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K48">
-        <v>0.04567307692307692</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M48">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N48">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>397</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K49">
-        <v>0.04180602006688963</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L49">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="N49">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>1146</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K50">
-        <v>0.03255340793489318</v>
+        <v>0.06043956043956044</v>
       </c>
       <c r="L50">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M50">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N50">
-        <v>0.84</v>
+        <v>0.97</v>
       </c>
       <c r="O50">
-        <v>0.16</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>951</v>
+        <v>513</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K51">
-        <v>0.02788461538461539</v>
+        <v>0.05301204819277108</v>
       </c>
       <c r="L51">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M51">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>1011</v>
+        <v>393</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K52">
-        <v>0.01639344262295082</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="L52">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M52">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N52">
-        <v>0.72</v>
+        <v>0.87</v>
       </c>
       <c r="O52">
-        <v>0.28</v>
+        <v>0.13</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>1260</v>
+        <v>395</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K53">
-        <v>0.0150564617314931</v>
+        <v>0.04093567251461988</v>
       </c>
       <c r="L53">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="M53">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="N53">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O53">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>2355</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K54">
-        <v>0.01397451705713111</v>
+        <v>0.02845528455284553</v>
       </c>
       <c r="L54">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M54">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N54">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="O54">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>2399</v>
+        <v>956</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="K55">
-        <v>0.01346463022508039</v>
+        <v>0.02309913378248316</v>
       </c>
       <c r="L55">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="M55">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="N55">
-        <v>0.77</v>
+        <v>0.96</v>
       </c>
       <c r="O55">
-        <v>0.23</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>4909</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K56">
-        <v>0.01324085750315259</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="L56">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="M56">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="N56">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="O56">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>1565</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K57">
-        <v>0.01314307172361998</v>
+        <v>0.0177027583367641</v>
       </c>
       <c r="L57">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M57">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="N57">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
       <c r="O57">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>2628</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K58">
-        <v>0.01003134796238245</v>
+        <v>0.01729559748427673</v>
       </c>
       <c r="L58">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M58">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N58">
-        <v>0.74</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O58">
-        <v>0.26</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>3158</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="K59">
-        <v>0.009760632117127585</v>
+        <v>0.01691729323308271</v>
       </c>
       <c r="L59">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M59">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="N59">
-        <v>0.63</v>
+        <v>0.78</v>
       </c>
       <c r="O59">
-        <v>0.37</v>
+        <v>0.22</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>4261</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="K60">
-        <v>0.009280742459396751</v>
+        <v>0.01574803149606299</v>
       </c>
       <c r="L60">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M60">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="N60">
-        <v>0.87</v>
+        <v>0.66</v>
       </c>
       <c r="O60">
-        <v>0.13</v>
+        <v>0.34</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>2135</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="K61">
-        <v>0.008001561280249805</v>
+        <v>0.01547469677959013</v>
       </c>
       <c r="L61">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M61">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="N61">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="O61">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>5083</v>
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K62">
+        <v>0.01430586338907919</v>
+      </c>
+      <c r="L62">
+        <v>71</v>
+      </c>
+      <c r="M62">
+        <v>104</v>
+      </c>
+      <c r="N62">
+        <v>0.68</v>
+      </c>
+      <c r="O62">
+        <v>0.32</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>4892</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K63">
+        <v>0.01346078813889973</v>
+      </c>
+      <c r="L63">
+        <v>69</v>
+      </c>
+      <c r="M63">
+        <v>108</v>
+      </c>
+      <c r="N63">
+        <v>0.64</v>
+      </c>
+      <c r="O63">
+        <v>0.36</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>5057</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K64">
+        <v>0.01211556383970177</v>
+      </c>
+      <c r="L64">
+        <v>26</v>
+      </c>
+      <c r="M64">
+        <v>38</v>
+      </c>
+      <c r="N64">
+        <v>0.68</v>
+      </c>
+      <c r="O64">
+        <v>0.32</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K65">
+        <v>0.01186521120075937</v>
+      </c>
+      <c r="L65">
+        <v>25</v>
+      </c>
+      <c r="M65">
+        <v>61</v>
+      </c>
+      <c r="N65">
+        <v>0.41</v>
+      </c>
+      <c r="O65">
+        <v>0.5900000000000001</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K66">
+        <v>0.01023731968357375</v>
+      </c>
+      <c r="L66">
+        <v>44</v>
+      </c>
+      <c r="M66">
+        <v>74</v>
+      </c>
+      <c r="N66">
+        <v>0.59</v>
+      </c>
+      <c r="O66">
+        <v>0.41</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K67">
+        <v>0.008722197993894461</v>
+      </c>
+      <c r="L67">
+        <v>20</v>
+      </c>
+      <c r="M67">
+        <v>36</v>
+      </c>
+      <c r="N67">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O67">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>2273</v>
       </c>
     </row>
   </sheetData>
